--- a/Fortune500_2020_Final.xlsx
+++ b/Fortune500_2020_Final.xlsx
@@ -8,22 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\AppData\Local\Programs\Python\Python38-32\fortune500app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11A2F73-F5DF-4CB2-8029-530F0657DAFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E28ABD0-C21A-485C-B189-B63424049385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$101</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="291">
   <si>
     <t>Walmart</t>
   </si>
@@ -409,9 +419,6 @@
     <t>2018 Diversity Report</t>
   </si>
   <si>
-    <t>2019 FY CSR Report</t>
-  </si>
-  <si>
     <t>2021 FY Mid-Year Diversity Report</t>
   </si>
   <si>
@@ -487,14 +494,425 @@
     <t>https://thewaltdisneycompany.com/app/uploads/2019/09/DiversityAndInclusionCommitment.pdf</t>
   </si>
   <si>
-    <t>2019 Diversity Brochure</t>
+    <t>StoneX</t>
+  </si>
+  <si>
+    <t>https://www.abbvie.com/content/dam/abbvie-dotcom/uploads/PDFs/responsibility/abbvie-responsible-action-report.pdf</t>
+  </si>
+  <si>
+    <t>2019 Responsible Action Report</t>
+  </si>
+  <si>
+    <t>https://www.abbvie.com/responsibility/workforce-vitality/diversity-and-development.html</t>
+  </si>
+  <si>
+    <t>AbbVie</t>
+  </si>
+  <si>
+    <t>https://www.plainsallamerican.com/sustainability/sustainability-information</t>
+  </si>
+  <si>
+    <t>2019 CSR Data</t>
+  </si>
+  <si>
+    <t>Plains GP Holdings</t>
+  </si>
+  <si>
+    <t>https://ecm.capitalone.com/Release/wcm/COF_corporate-social-responsibility-2019-2020.pdf</t>
+  </si>
+  <si>
+    <t>https://www.capitalone.com/diversity/</t>
+  </si>
+  <si>
+    <t>Capital One Financial</t>
+  </si>
+  <si>
+    <t>https://www.northropgrumman.com/corporate-responsibility/diversity-and-inclusion/people-at-northrop-grumman-celebrating-a-diverse-workforce/</t>
+  </si>
+  <si>
+    <t>https://www.northropgrumman.com/corporate-responsibility/diversity-drives-innovation-at-northrop-grumman/</t>
+  </si>
+  <si>
+    <t>Northrop Grumman</t>
+  </si>
+  <si>
+    <t>https://www.exeloncorp.com/company/Documents/2018%20DI%20Annual%20Report.pdf</t>
+  </si>
+  <si>
+    <t>https://jobs.exeloncorp.com/pages/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>Exelon</t>
+  </si>
+  <si>
+    <t>https://www.usaa.com/inet/wc/about_usaa_corporate_diversity_main</t>
+  </si>
+  <si>
+    <t>USAA</t>
+  </si>
+  <si>
+    <t>http://static.conocophillips.com/files/resources/2019-sustainability-report.htm#18</t>
+  </si>
+  <si>
+    <t>http://www.conocophillips.com/about-us/people/diversity-inclusion/</t>
+  </si>
+  <si>
+    <t>ConocoPhillips</t>
+  </si>
+  <si>
+    <t>https://www.honeywell.com/content/dam/honeywell/files/Corporate_Citizenship_Report_2020.pdf</t>
+  </si>
+  <si>
+    <t>https://www.honeywell.com/en-us/company/inclusion-and-diversity</t>
+  </si>
+  <si>
+    <t>Honeywell International</t>
+  </si>
+  <si>
+    <t>World Fuel Services</t>
+  </si>
+  <si>
+    <t>https://www.techdata.com/diversity.html</t>
+  </si>
+  <si>
+    <t>Tech Data</t>
+  </si>
+  <si>
+    <t>https://www.corporatereport.com/massmutual/2019/ar/investing-in-our-people-and-communities/diversity-and-inclusion.php</t>
+  </si>
+  <si>
+    <t>https://www.massmutual.com/about-us/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Massachusetts Mutual Life Insurance</t>
+  </si>
+  <si>
+    <t>https://www.coca-colacompany.com/content/dam/journey/us/en/reports/coca-cola-business-and-sustainability-report-2019.pdf#page=43</t>
+  </si>
+  <si>
+    <t>https://www.coca-colacompany.com/shared-future/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>http://corporate.publix.com/about-publix/culture/committed-to-diversity</t>
+  </si>
+  <si>
+    <t>Publix Super Markets</t>
+  </si>
+  <si>
+    <t>https://www.progressive.com/about/diversity-and-inclusion/</t>
+  </si>
+  <si>
+    <t>Progressive</t>
+  </si>
+  <si>
+    <t>https://purpose.nike.com/fy19-representation-and-pay</t>
+  </si>
+  <si>
+    <t>https://jobs.nike.com/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>https://s22.q4cdn.com/253594569/files/doc_downloads/2019/09/2019_JD-Sustainability-Report.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 Sustainability Report </t>
+  </si>
+  <si>
+    <t>https://www.deere.com/en/our-company/john-deere-careers/why-john-deere/diversity/</t>
+  </si>
+  <si>
+    <t>Deere</t>
+  </si>
+  <si>
+    <t>https://www.gd.com/-/media/GD-Corporate/Responsibility/gd-2020-sustainability-report.ashx</t>
+  </si>
+  <si>
+    <t>https://www.gd.com/careers/diversity</t>
+  </si>
+  <si>
+    <t>General Dynamics</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/corporate/careers/culture/diversity.html</t>
+  </si>
+  <si>
+    <t>2019 Diversity Data</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>https://www.tiaa.org/public/pdf/tiaa-responsible-business-report.pdf</t>
+  </si>
+  <si>
+    <t>https://www.tiaa.org/public/about-tiaa/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>TIAA</t>
+  </si>
+  <si>
+    <t>https://www.tjx.com/docs/default-source/corporate-responsibility/tjx-2019-global-corporate-responsibility-report.pdf</t>
+  </si>
+  <si>
+    <t>https://www.tjx.com/responsibility/workplace/inclusion-and-diversity</t>
+  </si>
+  <si>
+    <t>TJX</t>
+  </si>
+  <si>
+    <t>https://www.tysonsustainability.com/workplace/inclusion-diversity</t>
+  </si>
+  <si>
+    <t>https://www.tysonfoods.com/who-we-are/our-people/inclusion-diversity</t>
+  </si>
+  <si>
+    <t>Tyson Foods</t>
+  </si>
+  <si>
+    <t>https://corporate.dow.com/en-us/about/company/beliefs-and-culture/diversity/shine-inclusion-report-2019/</t>
+  </si>
+  <si>
+    <t>https://corporate.dow.com/en-us/about/company/beliefs-and-culture/diversity.html</t>
+  </si>
+  <si>
+    <t>Dow</t>
+  </si>
+  <si>
+    <t>https://www.libertymutualgroup.com/documents/liberty-mutual-2019-esg-report-vfinal.pdf</t>
+  </si>
+  <si>
+    <t>2019 ESG Report</t>
+  </si>
+  <si>
+    <t>https://www.libertymutualgroup.com/about-lm/corporate-information/diversity-inclusion/our-commitment</t>
+  </si>
+  <si>
+    <t>Liberty Mutual Insurance Group</t>
+  </si>
+  <si>
+    <t>https://www.united.com/ual/en/us/fly/company/global-citizenship/diversity.html</t>
+  </si>
+  <si>
+    <t>United Airlines Holdings</t>
+  </si>
+  <si>
+    <t>https://corporate.bestbuy.com/wp-content/uploads/2019/06/FY19-full-report-FINAL-1.pdf</t>
+  </si>
+  <si>
+    <t>https://corporate.bestbuy.com/diversity-and-inclusion/</t>
+  </si>
+  <si>
+    <t>Best Buy</t>
+  </si>
+  <si>
+    <t>https://www.nationwide.com/personal/about-us/diversity-inclusion/</t>
+  </si>
+  <si>
+    <t>Nationwide</t>
+  </si>
+  <si>
+    <t>https://www.newyorklife.com/assets/docs/pdfs/careers/new-york-life-odi-year-in-review.pdf</t>
+  </si>
+  <si>
+    <t>https://www.newyorklife.com/careers/diversity</t>
+  </si>
+  <si>
+    <t>New York Life Insurance</t>
+  </si>
+  <si>
+    <t>https://www.allstatesustainability.com/wp-content/uploads/materials/downloads/Allstate_2019SustainabilityReport.pdf</t>
+  </si>
+  <si>
+    <t>https://www.allstate.com/diversity.aspx</t>
+  </si>
+  <si>
+    <t>Allstate</t>
+  </si>
+  <si>
+    <t>https://ir.charter.com/static-files/6ee8fc73-5d4e-47f8-b348-57695632cf34</t>
+  </si>
+  <si>
+    <t>https://corporate.charter.com/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>Charter Communications</t>
+  </si>
+  <si>
+    <t>https://s21.q4cdn.com/616071541/files/doc_downloads/crr/CRR-Report-2018.pdf</t>
+  </si>
+  <si>
+    <t>2018 CSR Report</t>
+  </si>
+  <si>
+    <t>https://www.aa.com/i18n/customer-service/about-us/diversity/inclusion-and-diversity.jsp</t>
+  </si>
+  <si>
+    <t>American Airlines Group</t>
+  </si>
+  <si>
+    <t>https://www.msdresponsibility.com/employees/global-diversity-inclusion/</t>
+  </si>
+  <si>
+    <t>https://www.merck.com/company-overview/diversity-and-inclusion/</t>
+  </si>
+  <si>
+    <t>Merck</t>
+  </si>
+  <si>
+    <t>Delta Air Lines</t>
+  </si>
+  <si>
+    <t>https://s1.q4cdn.com/692158879/files/doc_downloads/2020/American-Express-2019-2020-ESG-Report.pdf</t>
+  </si>
+  <si>
+    <t>https://www.americanexpress.com/us/company/global-diversity-and-inclusion.html</t>
+  </si>
+  <si>
+    <t>American Express</t>
+  </si>
+  <si>
+    <t>https://www.aig.com/content/dam/aig/america-canada/us/documents/about-us/2018-eeo-1-final-7-30-19.pdf</t>
+  </si>
+  <si>
+    <t>https://www.aig.com/about-us/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>American International Group</t>
+  </si>
+  <si>
+    <t>https://hcahealthcareimpact.com/excellent-people-make-excellence-happen/our-people/</t>
+  </si>
+  <si>
+    <t>2020 Impact Report</t>
+  </si>
+  <si>
+    <t>https://hcahealthcare.com/about/inclusion-compassion-and-respect.dot</t>
+  </si>
+  <si>
+    <t>HCA Healthcare</t>
+  </si>
+  <si>
+    <t>https://www.pfizer.com/sites/default/files/investors/financial_reports/annual_reports/2019/our-bold-moves/unleash-the-power-of-our-people/building-a-more-diverse-pfizer/index.html</t>
+  </si>
+  <si>
+    <t>https://www.pfizer.com/people/workplace-diversity</t>
+  </si>
+  <si>
+    <t>Pfizer</t>
+  </si>
+  <si>
+    <t>https://www.cisco.com/c/dam/m/en_us/about/csr/csr-report/2019/_pdf/csr-report-2019.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cisco.com/c/en/us/about/inclusion-diversity.html</t>
+  </si>
+  <si>
+    <t>Cisco Systems</t>
+  </si>
+  <si>
+    <t>https://www.caterpillar.com/en/careers/why-caterpillar/diversity-inclusion.html</t>
+  </si>
+  <si>
+    <t>Caterpillar</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>https://www.goldmansachs.com/our-firm/people-and-culture/pdf/emea-diversity-and-inclusion-2019-report.pdf</t>
+  </si>
+  <si>
+    <t>https://www.goldmansachs.com/our-firm/people-and-culture/</t>
+  </si>
+  <si>
+    <t>Goldman Sachs Group</t>
+  </si>
+  <si>
+    <t>Energy Transfer</t>
+  </si>
+  <si>
+    <t>https://h20195.www2.hp.com/v2/GetDocument.aspx?docname=c06601778</t>
+  </si>
+  <si>
+    <t>https://www8.hp.com/us/en/hp-information/about-hp/diversity/index.html</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>https://www.lockheedmartin.com/content/dam/lockheed-martin/eo/documents/globaldiversityinclusion/global-diversity-inclusion-annual-report-2019.pdf</t>
+  </si>
+  <si>
+    <t>https://www.lockheedmartin.com/en-us/who-we-are/global-diversity-inclusion.html</t>
+  </si>
+  <si>
+    <t>Lockheed Martin</t>
+  </si>
+  <si>
+    <t>https://sysco.com/dam/Sysco/About/Corporate-Social-Responsibility/2019-CSR-Report.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sysco.com/About/Our-People/Diversity-and-Inclusion.html</t>
+  </si>
+  <si>
+    <t>Sysco</t>
+  </si>
+  <si>
+    <t>https://www.albertsonscompanies.com/our-values/diversityandinclusion.html</t>
+  </si>
+  <si>
+    <t>Albertsons</t>
+  </si>
+  <si>
+    <t>https://assets.adm.com/Sustainability/2019-Reports/2019-ADM-Sustainability-Report.pdf</t>
+  </si>
+  <si>
+    <t>Archer Daniels Midland</t>
+  </si>
+  <si>
+    <t>https://s1.q4cdn.com/379746662/files/sustainability_reports/2020/FINAL-2019_Sustainability-Report_v3.pdf</t>
+  </si>
+  <si>
+    <t>https://www.prudential.com/links/about/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>Prudential Financial</t>
+  </si>
+  <si>
+    <t>https://docushare-web.apps.cf.humana.com/Marketing/docushare-app?file=4082819</t>
+  </si>
+  <si>
+    <t>https://www.humana.com/careers/inclusion-diversity</t>
+  </si>
+  <si>
+    <t>Humana</t>
+  </si>
+  <si>
+    <t>https://www.pepsico.com/docs/album/esg-topics-policies/pepsico_diversity_report_final_highres.pdf?sfvrsn=25721d35_8</t>
+  </si>
+  <si>
+    <t>https://www.pepsico.com/about/diversity-and-engagement</t>
+  </si>
+  <si>
+    <t>PepsiCo</t>
+  </si>
+  <si>
+    <t>2018 Diversity Data</t>
+  </si>
+  <si>
+    <t>2019 Diversity Report (EMEA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +922,19 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -544,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -554,6 +985,20 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,19 +1301,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
@@ -903,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -963,9 +1408,9 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
@@ -1043,10 +1488,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
         <v>122</v>
@@ -1083,10 +1528,10 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
@@ -1103,10 +1548,10 @@
         <v>102</v>
       </c>
       <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
         <v>131</v>
-      </c>
-      <c r="D12" t="s">
-        <v>132</v>
       </c>
       <c r="E12" t="s">
         <v>123</v>
@@ -1123,10 +1568,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="E13" t="s">
         <v>123</v>
@@ -1143,10 +1588,10 @@
         <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
         <v>123</v>
@@ -1163,7 +1608,7 @@
         <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
         <v>104</v>
@@ -1183,10 +1628,10 @@
         <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
         <v>123</v>
@@ -1203,10 +1648,10 @@
         <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
         <v>123</v>
@@ -1243,10 +1688,10 @@
         <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
         <v>123</v>
@@ -1283,7 +1728,7 @@
         <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
         <v>109</v>
@@ -1323,10 +1768,10 @@
         <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
         <v>123</v>
@@ -1343,7 +1788,7 @@
         <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
         <v>111</v>
@@ -1383,7 +1828,7 @@
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
         <v>113</v>
@@ -1443,10 +1888,10 @@
         <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
         <v>123</v>
@@ -1483,7 +1928,7 @@
         <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
         <v>114</v>
@@ -1523,7 +1968,7 @@
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
         <v>63</v>
@@ -1563,7 +2008,7 @@
         <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
         <v>116</v>
@@ -1586,7 +2031,7 @@
         <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
         <v>123</v>
@@ -1643,10 +2088,10 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" t="s">
         <v>27</v>
@@ -1743,10 +2188,10 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
         <v>123</v>
@@ -1763,10 +2208,10 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E45" t="s">
         <v>123</v>
@@ -1803,7 +2248,7 @@
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
         <v>38</v>
@@ -1823,10 +2268,10 @@
         <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
         <v>123</v>
@@ -1863,10 +2308,10 @@
         <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>153</v>
+        <v>126</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="E50" t="s">
         <v>123</v>
@@ -1895,7 +2340,1008 @@
         <v>29</v>
       </c>
     </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>89</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>94</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>95</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>97</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>98</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>100</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F101" xr:uid="{D9E00983-0FC1-4CFC-AD79-EB06D84E1505}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>